--- a/_data/template_taxon_table.xlsx
+++ b/_data/template_taxon_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Documents/GitHub/TaxonTableTools/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FEC643-1CB7-1F40-9ECF-C5800638D3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523C379-1DDB-C847-B770-3EB70CE544F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaXon table" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>GENUS EPITHET</t>
   </si>
   <si>
-    <t>PUBLUC</t>
-  </si>
-  <si>
     <t>GATC</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Sample_3</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -570,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
       <c r="K2">
         <v>1200</v>
